--- a/data_share/wind_incentives_update_2016_01_22/Data/Output/curated_incentives/incentives_ptc.xlsx
+++ b/data_share/wind_incentives_update_2016_01_22/Data/Output/curated_incentives/incentives_ptc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>cap_pct_cost</t>
   </si>
   <si>
-    <t>duration_yrs</t>
+    <t>duration_years</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
